--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_63.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_63.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,634 +488,648 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
-        </is>
+          <t>isophonics_115</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>jaah_66</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08907563025210083</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min', 'G:min', 'A:hdim7/C', 'D:7', 'G:min', 'F#:dim7', 'G:min', 'F#:dim7', 'D:maj/A', 'G:min/A#', 'F:maj/A', 'D#:maj/G', 'A#:maj/F', 'D#:maj', 'A#:maj/F', 'F:7', 'A#:maj', 'D#:maj/G', 'D:min/A', 'A:7', 'D:min', 'C#:dim7/E', 'D:min/F', 'D:(3,5,b7,b9)/F#', 'G:min', 'G:(3,5,b7,b9)', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'F#:dim7', 'A:hdim7/C', 'F#:dim7', 'A:hdim7/C', 'D:(3,5,b7,b9)', 'G:min', 'G:(3,5,b7,b9)/B', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'G:min']]</t>
+          <t>[['Bb', 'Bb:min', 'F']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(11.0, 66.82)]</t>
+          <t>[['Db', 'Db:min', 'Ab']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(9.18, 61.0)]</t>
+          <t>[('0:00:39.610440', '0:00:45.427039')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:49.580000', '0:00:52.970000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>isophonics_194</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_76</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1254826254826255</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
+          <t>[['G', 'D', 'A', 'B:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(74.1, 80.04), (25.48, 32.58)]</t>
+          <t>[['C', 'G', 'D/3', 'E:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(2.56, 4.8), (0.3, 3.34)]</t>
+          <t>[('0:00:59.205240', '0:01:09.665829')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:09.336000', '0:00:14.901000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2571428571428571</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Db/5', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2202898550724638</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(0.243, 9.12)]</t>
+          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(62.48, 64.92)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>[('0:00:06.800000', '0:00:12.660000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:01.500000', '0:00:04.800000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1538461538461539</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['D:maj/F#', 'A:7', 'D:maj'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>jaah_1</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.16</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min'], ['F:maj', 'C:7/E', 'F:maj'], ['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(80.2, 86.86), (36.4, 41.7), (13.12, 19.96)]</t>
+          <t>[['Eb', 'Bb:7', 'Eb']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(124.3, 129.24), (34.64, 39.0), (1.0, 5.36)]</t>
+          <t>[('0:00:44.200000', '0:00:59.980000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:00:04.830000', '0:00:10.940000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.06919406150583245</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F', 'F:7', 'Bb'], ['F', 'Bb', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_161</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb:7/b7', 'Ab'], ['Eb/5', 'Ab', 'Eb/3']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(29.47, 32.22), (62.53, 66.23)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(7.604557, 14.675034), (86.923922, 92.322562)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:01.600000', '0:00:12.540000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:27', '0:00:49.860000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.3314393939393939</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_70</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2125874125874126</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(0.6, 11.32)]</t>
+          <t>[['F:min', 'C:7', 'F:min', 'F:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(19.14, 24.78)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:01.540000', '0:00:04.240000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:49.340000', '0:01:01.680000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_43</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1009316770186335</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#']]</t>
-        </is>
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(20.42, 22.86)]</t>
+          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'F#:7', 'B:maj', 'D#:7/A#', 'A:(3,5)', 'C#:maj', 'A#:(3,5,b7,b9)', 'D#:min/G#', 'F#:maj/G#', 'G#:7', 'C#:maj', 'C#:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(5.44, 10.01)]</t>
+          <t>[('0:00:00.380000', '0:00:31.160000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:00.480000', '0:00:35.060000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_70</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_65</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.024003024003024</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['Eb:min7', 'Ab:7', 'Db:maj6']]</t>
-        </is>
+          <t>isophonics_155</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4571428571428572</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['Bb:min7', 'Eb:7', 'Ab:maj6']]</t>
+          <t>[['Ab', 'Db/5', 'Ab', 'Db/5']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(35.45, 37.19)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(8.04, 9.88)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:04:21.828000', '0:04:33.028000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:02:12.300000', '0:02:17.480000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5142857142857142</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_112</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.45</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(138.02, 142.34)]</t>
+          <t>[['A', 'D/5', 'A', 'D/5']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(63.6, 66.04)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:02:23.580000', '0:02:29.120000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:00.421247', '0:00:06.206099')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_61</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1385964912280702</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#', 'F#:min', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min', 'C:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(59.704875, 63.512947)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(12.56, 19.54)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:01:03.840000', '0:01:05.240000'), ('0:01:02.200000', '0:01:04.400000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:01.640000', '0:00:10.360000'), ('0:00:57.480000', '0:01:04.580000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_80</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_21</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'B:maj', 'B:(3,#5,7)/A#', 'G#:min', 'G#:hdim7/F#', 'C#:7/F', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(8.26, 12.96)]</t>
+          <t>[('0:00:01.240000', '0:00:15.940000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:02.020000', '0:00:16.560000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_238</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_27</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.04420289855072464</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C', 'F:min', 'F:min/5']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6000000000000001</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A', 'D:min', 'D:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(41.384331, 46.388231)]</t>
+          <t>[['E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(35.155014, 49.662244)]</t>
+          <t>[('0:02:18.020000', '0:02:23.320000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:5By7Pzgl6TMuVJG168VWzS</t>
+          <t>[('0:00:37.995918', '0:00:49.466575')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:7/A', 'E:maj/G#', 'A:maj', 'E:maj']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['B:7', 'E', 'A', 'E']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(54.58, 62.32)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(13.38418, 21.737596)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:57.520000', '0:01:03.420000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:01:00.320000', '0:01:06.700000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.08749999999999999</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'D#:7/A#', 'G#'], ['A#/F', 'F:7', 'A#']]</t>
-        </is>
+          <t>schubert-winterreise_181</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C#:min', 'F#:7/A#', 'B:maj'], ['C#:maj', 'G#:7', 'C#:maj']]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(40.4, 43.34), (271.22, 275.78)]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(31.34, 36.62), (0.48, 8.48)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:41.140000', '0:01:25.340000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:40.100000', '0:01:24.580000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_168</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_170</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.09005376344086022</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_159</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_76</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D/7', 'D/6', 'A']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(15.388254, 19.382087)]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(12.39, 14.239254)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:47.340000', '0:00:52.740000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:55.560000', '0:01:00.520000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_126</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_198</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(160.02, 164.86)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(150.16, 154.94)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
